--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H2">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I2">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J2">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>9.017108666666667</v>
+        <v>14.91571833333333</v>
       </c>
       <c r="N2">
-        <v>27.051326</v>
+        <v>44.747155</v>
       </c>
       <c r="O2">
-        <v>0.9458455987118949</v>
+        <v>0.9626318069253016</v>
       </c>
       <c r="P2">
-        <v>0.9458455987118949</v>
+        <v>0.9626318069253015</v>
       </c>
       <c r="Q2">
-        <v>29.42392566659067</v>
+        <v>101.0621854096044</v>
       </c>
       <c r="R2">
-        <v>264.815330999316</v>
+        <v>909.55966868644</v>
       </c>
       <c r="S2">
-        <v>0.3340136239590061</v>
+        <v>0.5109413366104936</v>
       </c>
       <c r="T2">
-        <v>0.3340136239590061</v>
+        <v>0.5109413366104936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H3">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I3">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J3">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.633498</v>
       </c>
       <c r="O3">
-        <v>0.02215016354809328</v>
+        <v>0.01362824797293961</v>
       </c>
       <c r="P3">
-        <v>0.02215016354809328</v>
+        <v>0.01362824797293961</v>
       </c>
       <c r="Q3">
-        <v>0.6890604202519999</v>
+        <v>1.430765650522667</v>
       </c>
       <c r="R3">
-        <v>6.201543782268</v>
+        <v>12.876890854704</v>
       </c>
       <c r="S3">
-        <v>0.007822055109268301</v>
+        <v>0.007233539536984518</v>
       </c>
       <c r="T3">
-        <v>0.007822055109268301</v>
+        <v>0.007233539536984517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H4">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I4">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J4">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2463056666666667</v>
+        <v>0.3355976666666667</v>
       </c>
       <c r="N4">
-        <v>0.738917</v>
+        <v>1.006793</v>
       </c>
       <c r="O4">
-        <v>0.02583612323711589</v>
+        <v>0.02165882869625444</v>
       </c>
       <c r="P4">
-        <v>0.02583612323711589</v>
+        <v>0.02165882869625443</v>
       </c>
       <c r="Q4">
-        <v>0.8037254396246666</v>
+        <v>2.273858546651556</v>
       </c>
       <c r="R4">
-        <v>7.233528956622</v>
+        <v>20.464726919864</v>
       </c>
       <c r="S4">
-        <v>0.009123705986720094</v>
+        <v>0.01149597468509649</v>
       </c>
       <c r="T4">
-        <v>0.009123705986720094</v>
+        <v>0.01149597468509649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H5">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I5">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J5">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.058803</v>
+        <v>0.03224633333333333</v>
       </c>
       <c r="N5">
-        <v>0.176409</v>
+        <v>0.09673899999999999</v>
       </c>
       <c r="O5">
-        <v>0.006168114502895964</v>
+        <v>0.002081116405504366</v>
       </c>
       <c r="P5">
-        <v>0.006168114502895964</v>
+        <v>0.002081116405504366</v>
       </c>
       <c r="Q5">
-        <v>0.191881362966</v>
+        <v>0.2184866223191111</v>
       </c>
       <c r="R5">
-        <v>1.726932266694</v>
+        <v>1.966379600872</v>
       </c>
       <c r="S5">
-        <v>0.002178193016822329</v>
+        <v>0.001104605509833252</v>
       </c>
       <c r="T5">
-        <v>0.002178193016822329</v>
+        <v>0.001104605509833252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>13.101932</v>
       </c>
       <c r="I6">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J6">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>9.017108666666667</v>
+        <v>14.91571833333333</v>
       </c>
       <c r="N6">
-        <v>27.051326</v>
+        <v>44.747155</v>
       </c>
       <c r="O6">
-        <v>0.9458455987118949</v>
+        <v>0.9626318069253016</v>
       </c>
       <c r="P6">
-        <v>0.9458455987118949</v>
+        <v>0.9626318069253015</v>
       </c>
       <c r="Q6">
-        <v>39.38051486242578</v>
+        <v>65.14157577816222</v>
       </c>
       <c r="R6">
-        <v>354.424633761832</v>
+        <v>586.2741820034599</v>
       </c>
       <c r="S6">
-        <v>0.4470385301953639</v>
+        <v>0.3293370676886714</v>
       </c>
       <c r="T6">
-        <v>0.4470385301953639</v>
+        <v>0.3293370676886714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.101932</v>
       </c>
       <c r="I7">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J7">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.633498</v>
       </c>
       <c r="O7">
-        <v>0.02215016354809328</v>
+        <v>0.01362824797293961</v>
       </c>
       <c r="P7">
-        <v>0.02215016354809328</v>
+        <v>0.01362824797293961</v>
       </c>
       <c r="Q7">
         <v>0.9222275242373332</v>
@@ -883,10 +883,10 @@
         <v>8.300047718136</v>
       </c>
       <c r="S7">
-        <v>0.01046891434459452</v>
+        <v>0.004662517062964964</v>
       </c>
       <c r="T7">
-        <v>0.01046891434459452</v>
+        <v>0.004662517062964963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.101932</v>
       </c>
       <c r="I8">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J8">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2463056666666667</v>
+        <v>0.3355976666666667</v>
       </c>
       <c r="N8">
-        <v>0.738917</v>
+        <v>1.006793</v>
       </c>
       <c r="O8">
-        <v>0.02583612323711589</v>
+        <v>0.02165882869625444</v>
       </c>
       <c r="P8">
-        <v>0.02583612323711589</v>
+        <v>0.02165882869625443</v>
       </c>
       <c r="Q8">
-        <v>1.075693365293778</v>
+        <v>1.465659269341778</v>
       </c>
       <c r="R8">
-        <v>9.681240287644</v>
+        <v>13.190933424076</v>
       </c>
       <c r="S8">
-        <v>0.0122110232088574</v>
+        <v>0.007409951635796301</v>
       </c>
       <c r="T8">
-        <v>0.0122110232088574</v>
+        <v>0.0074099516357963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.101932</v>
       </c>
       <c r="I9">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J9">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.058803</v>
+        <v>0.03224633333333333</v>
       </c>
       <c r="N9">
-        <v>0.176409</v>
+        <v>0.09673899999999999</v>
       </c>
       <c r="O9">
-        <v>0.006168114502895964</v>
+        <v>0.002081116405504366</v>
       </c>
       <c r="P9">
-        <v>0.006168114502895964</v>
+        <v>0.002081116405504366</v>
       </c>
       <c r="Q9">
-        <v>0.256810969132</v>
+        <v>0.1408297555275555</v>
       </c>
       <c r="R9">
-        <v>2.311298722188</v>
+        <v>1.267467799748</v>
       </c>
       <c r="S9">
-        <v>0.00291525894417279</v>
+        <v>0.000711994731087024</v>
       </c>
       <c r="T9">
-        <v>0.00291525894417279</v>
+        <v>0.000711994731087024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H10">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I10">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J10">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>9.017108666666667</v>
+        <v>14.91571833333333</v>
       </c>
       <c r="N10">
-        <v>27.051326</v>
+        <v>44.747155</v>
       </c>
       <c r="O10">
-        <v>0.9458455987118949</v>
+        <v>0.9626318069253016</v>
       </c>
       <c r="P10">
-        <v>0.9458455987118949</v>
+        <v>0.9626318069253015</v>
       </c>
       <c r="Q10">
-        <v>14.51698288689311</v>
+        <v>24.20102147876333</v>
       </c>
       <c r="R10">
-        <v>130.652845982038</v>
+        <v>217.80919330887</v>
       </c>
       <c r="S10">
-        <v>0.1647934445575249</v>
+        <v>0.1223534026261366</v>
       </c>
       <c r="T10">
-        <v>0.1647934445575249</v>
+        <v>0.1223534026261366</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H11">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I11">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J11">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.633498</v>
       </c>
       <c r="O11">
-        <v>0.02215016354809328</v>
+        <v>0.01362824797293961</v>
       </c>
       <c r="P11">
-        <v>0.02215016354809328</v>
+        <v>0.01362824797293961</v>
       </c>
       <c r="Q11">
-        <v>0.3399640973193333</v>
+        <v>0.342620635988</v>
       </c>
       <c r="R11">
-        <v>3.059676875874</v>
+        <v>3.083585723892</v>
       </c>
       <c r="S11">
-        <v>0.00385919409423046</v>
+        <v>0.001732191372990133</v>
       </c>
       <c r="T11">
-        <v>0.00385919409423046</v>
+        <v>0.001732191372990133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H12">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I12">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J12">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2463056666666667</v>
+        <v>0.3355976666666667</v>
       </c>
       <c r="N12">
-        <v>0.738917</v>
+        <v>1.006793</v>
       </c>
       <c r="O12">
-        <v>0.02583612323711589</v>
+        <v>0.02165882869625444</v>
       </c>
       <c r="P12">
-        <v>0.02583612323711589</v>
+        <v>0.02165882869625443</v>
       </c>
       <c r="Q12">
-        <v>0.3965367702801111</v>
+        <v>0.5445132549246667</v>
       </c>
       <c r="R12">
-        <v>3.568830932521</v>
+        <v>4.900619294322</v>
       </c>
       <c r="S12">
-        <v>0.004501394041538393</v>
+        <v>0.002752902375361651</v>
       </c>
       <c r="T12">
-        <v>0.004501394041538393</v>
+        <v>0.00275290237536165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H13">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I13">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J13">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.058803</v>
+        <v>0.03224633333333333</v>
       </c>
       <c r="N13">
-        <v>0.176409</v>
+        <v>0.09673899999999999</v>
       </c>
       <c r="O13">
-        <v>0.006168114502895964</v>
+        <v>0.002081116405504366</v>
       </c>
       <c r="P13">
-        <v>0.006168114502895964</v>
+        <v>0.002081116405504366</v>
       </c>
       <c r="Q13">
-        <v>0.094669164613</v>
+        <v>0.05232025626733333</v>
       </c>
       <c r="R13">
-        <v>0.852022481517</v>
+        <v>0.470882306406</v>
       </c>
       <c r="S13">
-        <v>0.001074662541900845</v>
+        <v>0.0002645161645840909</v>
       </c>
       <c r="T13">
-        <v>0.001074662541900845</v>
+        <v>0.0002645161645840909</v>
       </c>
     </row>
   </sheetData>
